--- a/spreadsheets/GP - Copia.xlsx
+++ b/spreadsheets/GP - Copia.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="2" xr2:uid="{BA24646E-9266-4879-ADF6-D6FD644BA2BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{BA24646E-9266-4879-ADF6-D6FD644BA2BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stock" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Composition" sheetId="3" r:id="rId3"/>
+    <sheet name="Stock" sheetId="2" r:id="rId1"/>
+    <sheet name="Composition" sheetId="3" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="5" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Arroz</t>
   </si>
@@ -133,15 +133,17 @@
   </si>
   <si>
     <t>Matéria Prima</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.000_-;\-&quot;R$&quot;* #,##0.000_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -215,15 +217,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -252,6 +251,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -566,272 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DF5981-734E-4EDF-9439-7F17CFBA1C3D}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03EFE0A-A56E-4869-BBD8-BCA6F46ADE19}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1">
-        <v>360</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E3" s="1">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1">
-        <v>144</v>
-      </c>
-      <c r="L3" s="1">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="10">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="10">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="10">
-        <v>20</v>
-      </c>
-      <c r="J4" s="10">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10">
-        <v>15</v>
-      </c>
-      <c r="L4" s="10">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B3*B4</f>
-        <v>3848</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:M5" si="0">C3*C4</f>
-        <v>1440</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1680</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>14.4</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03EFE0A-A56E-4869-BBD8-BCA6F46ADE19}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,16 +583,15 @@
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -865,27 +606,30 @@
       <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -894,34 +638,38 @@
       <c r="C2" s="1">
         <v>148</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>26</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E13" si="0">C2*D2</f>
         <v>3848</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2">
+        <f>C2/4</f>
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>25</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -930,35 +678,39 @@
       <c r="C3" s="1">
         <v>360</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>4</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">C3/4</f>
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="1">
-        <f>I3*100</f>
+      <c r="K3" s="1">
+        <f>J3*100</f>
         <v>300</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -967,16 +719,20 @@
       <c r="C4" s="1">
         <v>2400</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.7</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -985,16 +741,20 @@
       <c r="C5" s="1">
         <v>96</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>19.200000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1003,16 +763,20 @@
       <c r="C6" s="1">
         <v>36</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1021,16 +785,20 @@
       <c r="C7" s="1">
         <v>14.4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1039,16 +807,20 @@
       <c r="C8" s="1">
         <v>36</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>2.5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1057,16 +829,20 @@
       <c r="C9" s="1">
         <v>60</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>20</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1075,16 +851,20 @@
       <c r="C10" s="1">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>4</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1093,16 +873,20 @@
       <c r="C11" s="1">
         <v>144</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>15</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1111,16 +895,21 @@
       <c r="C12" s="1">
         <v>24</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>15</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1129,12 +918,272 @@
       <c r="C13" s="1">
         <v>600</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.15</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD3D59-D2A3-4560-9DA6-8CDDE71134B3}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1143,217 +1192,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD3D59-D2A3-4560-9DA6-8CDDE71134B3}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6DB132-544A-4583-B0E4-BC65131EF2B7}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G2" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="M4" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="M5" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1368,99 +1213,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
     </row>

--- a/spreadsheets/GP - Copia.xlsx
+++ b/spreadsheets/GP - Copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{BA24646E-9266-4879-ADF6-D6FD644BA2BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{BA24646E-9266-4879-ADF6-D6FD644BA2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="2" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03EFE0A-A56E-4869-BBD8-BCA6F46ADE19}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,6 @@
         <v>3848</v>
       </c>
       <c r="F2">
-        <f>C2/4</f>
         <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -686,7 +685,6 @@
         <v>1440</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">C3/4</f>
         <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -727,7 +725,6 @@
         <v>1680</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
@@ -739,18 +736,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="D5" s="9">
         <v>0.2</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -771,7 +767,6 @@
         <v>72</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -793,7 +788,6 @@
         <v>14.4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
@@ -805,18 +799,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9">
         <v>2.5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -837,7 +830,6 @@
         <v>1200</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -859,7 +851,6 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -881,7 +872,6 @@
         <v>2160</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -903,7 +893,6 @@
         <v>360</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H12" s="14"/>
@@ -926,7 +915,6 @@
         <v>90</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -940,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD3D59-D2A3-4560-9DA6-8CDDE71134B3}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
